--- a/guidelines/tetrisCommand.xlsx
+++ b/guidelines/tetrisCommand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\tetris\guidelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12877C1C-42AB-4920-BE80-06760BD882DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE2B82C-7EF5-45E8-9EB7-32F8630C5D5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>操作名</t>
   </si>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>服务器将保存地图，并定时向每个用户传输。用户报告地图的频率与服务器返回地图的频率可能不相等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：当sender=0时，recver可能也为0，此时就代表发给所有用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +651,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
@@ -1037,8 +1041,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
